--- a/Auto_Test/ExcelHand/chart.xlsx
+++ b/Auto_Test/ExcelHand/chart.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaojunshuai\PycharmProjects\AutoTest-python\Auto_Test\ExcelHand\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -48,187 +60,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$A$1:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$1:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$1:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -270,7 +118,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,9 +150,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,6 +185,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,14 +361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -529,7 +381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -540,7 +392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -551,7 +403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -562,7 +414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -574,7 +426,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>